--- a/group_comparison/five_cohort_sample_comparison_dashboard_default_colors.xlsx
+++ b/group_comparison/five_cohort_sample_comparison_dashboard_default_colors.xlsx
@@ -17,13 +17,26 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean coverage plot" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield over 25 kb plot" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 plot" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N75 plot" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Median length plot" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean length plot" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Median identity plot" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean identity plot" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Median mapping Q score plot" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean mapping Q score plot" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 (kb) plot" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N75 plot" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Median length plot" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean length plot" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Median identity plot" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean identity plot" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Median mapping Q score plot" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mean mapping Q score plot" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield (Gb) vs. med. idy" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 (kb) vs. med. idy" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pct. total vs. med. idy" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield (Gb) vs. med. Q score" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 (kb) vs. med. Q score" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pct. total vs. med. Q score" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield (Gb) vs. avg. idy" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 (kb) vs. avg. idy" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pct. total vs. avg. idy" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield (Gb) vs. avg. Q score" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 (kb) vs. avg. Q score" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pct. total vs. avg. Q score" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -205,7 +218,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11134725" cy="8648700"/>
+    <ext cx="11220450" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -235,7 +248,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10715625" cy="8648700"/>
+    <ext cx="11134725" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -316,6 +329,186 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10715625" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8220075" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8220075" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8220075" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -346,6 +539,216 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8220075" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8220075" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8220075" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -475,6 +878,36 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="10715625" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="11220450" cy="8648700"/>
     <pic>
       <nvPicPr>
@@ -496,7 +929,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -506,36 +939,6 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="11277600" cy="8648700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="11220450" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -845,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,196 +1469,224 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>N50 (kb)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>8541</v>
+        <v>14.559</v>
       </c>
       <c r="D8" t="n">
-        <v>22167</v>
+        <v>31.705</v>
       </c>
       <c r="E8" t="n">
-        <v>13811.55</v>
+        <v>22.5824</v>
       </c>
       <c r="F8" t="n">
-        <v>12680</v>
+        <v>22.3835</v>
       </c>
       <c r="G8" t="n">
-        <v>10036</v>
+        <v>19.088</v>
       </c>
       <c r="H8" t="n">
-        <v>3832.882431566422</v>
+        <v>3.967005915907122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median length</t>
+          <t>N75</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>1044</v>
+        <v>8541</v>
       </c>
       <c r="D9" t="n">
-        <v>13922</v>
+        <v>22167</v>
       </c>
       <c r="E9" t="n">
-        <v>5575.45</v>
+        <v>13811.55</v>
       </c>
       <c r="F9" t="n">
-        <v>4683</v>
+        <v>12680</v>
       </c>
       <c r="G9" t="n">
-        <v>3301</v>
+        <v>10036</v>
       </c>
       <c r="H9" t="n">
-        <v>3467.435583206156</v>
+        <v>3832.882431566422</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mean length</t>
+          <t>Median length</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>7366</v>
+        <v>1044</v>
       </c>
       <c r="D10" t="n">
-        <v>15952</v>
+        <v>13922</v>
       </c>
       <c r="E10" t="n">
-        <v>10065.75</v>
+        <v>5575.45</v>
       </c>
       <c r="F10" t="n">
-        <v>9254</v>
+        <v>4683</v>
       </c>
       <c r="G10" t="n">
-        <v>7682</v>
+        <v>3301</v>
       </c>
       <c r="H10" t="n">
-        <v>2720.466366268843</v>
+        <v>3467.435583206155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Median identity</t>
+          <t>Mean length</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>98.23</v>
+        <v>7366</v>
       </c>
       <c r="D11" t="n">
-        <v>98.81999999999999</v>
+        <v>15952</v>
       </c>
       <c r="E11" t="n">
-        <v>98.5775</v>
+        <v>10065.75</v>
       </c>
       <c r="F11" t="n">
-        <v>98.56</v>
+        <v>9254</v>
       </c>
       <c r="G11" t="n">
-        <v>98.56</v>
+        <v>7682</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1360679010061148</v>
+        <v>2720.466366268843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mean identity</t>
+          <t>Median identity</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>95.43000000000001</v>
+        <v>98.23</v>
       </c>
       <c r="D12" t="n">
-        <v>96.87</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>96.18350000000001</v>
+        <v>98.5775</v>
       </c>
       <c r="F12" t="n">
-        <v>96.11</v>
+        <v>98.56</v>
       </c>
       <c r="G12" t="n">
-        <v>96.59999999999999</v>
+        <v>98.56</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4366050244424808</v>
+        <v>0.1360679010061148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Median mapping Q score</t>
+          <t>Mean identity</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>17.52</v>
+        <v>95.43000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28</v>
+        <v>96.87</v>
       </c>
       <c r="E13" t="n">
-        <v>18.4895</v>
+        <v>96.18350000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>18.42</v>
+        <v>96.11</v>
       </c>
       <c r="G13" t="n">
-        <v>18.42</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4104359043492022</v>
+        <v>0.4366050244424808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Median mapping Q score</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.4895</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4104359043492022</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Mean mapping Q score</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>13.4</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>15.04</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>14.2115</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>14.1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>14.69</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>0.5000555232329598</v>
       </c>
     </row>
@@ -1435,13 +1866,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1662,201 +2112,419 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>N50 (kb)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>1784</v>
+        <v>4.097</v>
       </c>
       <c r="D8" t="n">
-        <v>25077</v>
+        <v>37.051</v>
       </c>
       <c r="E8" t="n">
-        <v>17443.8</v>
+        <v>27.9531</v>
       </c>
       <c r="F8" t="n">
-        <v>18378</v>
+        <v>30.068</v>
       </c>
       <c r="G8" t="n">
-        <v>18112</v>
+        <v>29.318</v>
       </c>
       <c r="H8" t="n">
-        <v>4543.026635463006</v>
+        <v>6.931856695909947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median length</t>
+          <t>N75</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>806</v>
+        <v>1784</v>
       </c>
       <c r="D9" t="n">
-        <v>17729</v>
+        <v>25077</v>
       </c>
       <c r="E9" t="n">
-        <v>11941.55</v>
+        <v>17443.8</v>
       </c>
       <c r="F9" t="n">
-        <v>12100</v>
+        <v>18378</v>
       </c>
       <c r="G9" t="n">
-        <v>12528</v>
+        <v>18112</v>
       </c>
       <c r="H9" t="n">
-        <v>3181.607148910752</v>
+        <v>4543.026635463006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mean length</t>
+          <t>Median length</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>1830</v>
+        <v>806</v>
       </c>
       <c r="D10" t="n">
-        <v>21478</v>
+        <v>17729</v>
       </c>
       <c r="E10" t="n">
-        <v>15705.85</v>
+        <v>11941.55</v>
       </c>
       <c r="F10" t="n">
-        <v>16471.5</v>
+        <v>12100</v>
       </c>
       <c r="G10" t="n">
-        <v>16458</v>
+        <v>12528</v>
       </c>
       <c r="H10" t="n">
-        <v>3761.036129285316</v>
+        <v>3181.607148910751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Median identity</t>
+          <t>Mean length</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>98.43000000000001</v>
+        <v>1830</v>
       </c>
       <c r="D11" t="n">
-        <v>99.34</v>
+        <v>21478</v>
       </c>
       <c r="E11" t="n">
-        <v>98.8775</v>
+        <v>15705.85</v>
       </c>
       <c r="F11" t="n">
-        <v>98.8</v>
+        <v>16471.5</v>
       </c>
       <c r="G11" t="n">
-        <v>99.34</v>
+        <v>16458</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2930937518413201</v>
+        <v>3761.036129285316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mean identity</t>
+          <t>Median identity</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>94.44</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>96.94</v>
+        <v>99.34</v>
       </c>
       <c r="E12" t="n">
-        <v>95.8785</v>
+        <v>98.8775</v>
       </c>
       <c r="F12" t="n">
-        <v>95.88</v>
+        <v>98.8</v>
       </c>
       <c r="G12" t="n">
-        <v>95.43000000000001</v>
+        <v>99.34</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7439742143239557</v>
+        <v>0.2930937518413201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Median mapping Q score</t>
+          <t>Mean identity</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>18.04</v>
+        <v>94.44</v>
       </c>
       <c r="D13" t="n">
-        <v>21.8</v>
+        <v>96.94</v>
       </c>
       <c r="E13" t="n">
-        <v>19.6525</v>
+        <v>95.8785</v>
       </c>
       <c r="F13" t="n">
-        <v>19.21</v>
+        <v>95.88</v>
       </c>
       <c r="G13" t="n">
-        <v>21.8</v>
+        <v>95.43000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.217615767758753</v>
+        <v>0.7439742143239557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Median mapping Q score</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.6525</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.217615767758753</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Mean mapping Q score</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>12.55</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>15.14</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>13.9165</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>13.855</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>13.4</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>0.7826222789947569</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1866,7 +2534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,201 +2755,267 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>N50 (kb)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>6940</v>
+        <v>14.947</v>
       </c>
       <c r="D8" t="n">
-        <v>21632</v>
+        <v>28.62</v>
       </c>
       <c r="E8" t="n">
-        <v>17039.35</v>
+        <v>23.9855</v>
       </c>
       <c r="F8" t="n">
-        <v>18309</v>
+        <v>25.07</v>
       </c>
       <c r="G8" t="n">
-        <v>17544</v>
+        <v>24.641</v>
       </c>
       <c r="H8" t="n">
-        <v>3997.770487540854</v>
+        <v>3.706693483274193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median length</t>
+          <t>N75</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>1027</v>
+        <v>6940</v>
       </c>
       <c r="D9" t="n">
-        <v>21088</v>
+        <v>21632</v>
       </c>
       <c r="E9" t="n">
-        <v>14968.4</v>
+        <v>17039.35</v>
       </c>
       <c r="F9" t="n">
-        <v>17349</v>
+        <v>18309</v>
       </c>
       <c r="G9" t="n">
-        <v>16278</v>
+        <v>17544</v>
       </c>
       <c r="H9" t="n">
-        <v>6483.576753288996</v>
+        <v>3997.770487540854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mean length</t>
+          <t>Median length</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>5622</v>
+        <v>1027</v>
       </c>
       <c r="D10" t="n">
-        <v>20248</v>
+        <v>21088</v>
       </c>
       <c r="E10" t="n">
-        <v>15644.4</v>
+        <v>14968.4</v>
       </c>
       <c r="F10" t="n">
-        <v>17625</v>
+        <v>17349</v>
       </c>
       <c r="G10" t="n">
-        <v>16742</v>
+        <v>16278</v>
       </c>
       <c r="H10" t="n">
-        <v>4714.296279459567</v>
+        <v>6483.576753288996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Median identity</t>
+          <t>Mean length</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>98.42</v>
+        <v>5622</v>
       </c>
       <c r="D11" t="n">
-        <v>99.47</v>
+        <v>20248</v>
       </c>
       <c r="E11" t="n">
-        <v>99.09099999999999</v>
+        <v>15644.4</v>
       </c>
       <c r="F11" t="n">
-        <v>99.17</v>
+        <v>17625</v>
       </c>
       <c r="G11" t="n">
-        <v>99.45999999999999</v>
+        <v>16742</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2892804139493999</v>
+        <v>4714.296279459567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mean identity</t>
+          <t>Median identity</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>95.64</v>
+        <v>98.42</v>
       </c>
       <c r="D12" t="n">
-        <v>97.94</v>
+        <v>99.47</v>
       </c>
       <c r="E12" t="n">
-        <v>96.93000000000001</v>
+        <v>99.09099999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>97.13499999999999</v>
+        <v>99.17</v>
       </c>
       <c r="G12" t="n">
-        <v>95.64</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7774316690230726</v>
+        <v>0.2892804139493999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Median mapping Q score</t>
+          <t>Mean identity</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>18.01</v>
+        <v>95.64</v>
       </c>
       <c r="D13" t="n">
-        <v>22.76</v>
+        <v>97.94</v>
       </c>
       <c r="E13" t="n">
-        <v>20.622</v>
+        <v>96.93000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>20.81</v>
+        <v>97.13499999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>22.68</v>
+        <v>95.64</v>
       </c>
       <c r="H13" t="n">
-        <v>1.380173902086255</v>
+        <v>0.7774316690230726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Median mapping Q score</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20.622</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.380173902086255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Mean mapping Q score</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>13.61</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>16.86</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>15.2595</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>15.43</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>13.61</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1.080596691891251</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2291,7 +3025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,7 +3212,7 @@
         <v>77.02</v>
       </c>
       <c r="H6" t="n">
-        <v>19.65217521106291</v>
+        <v>19.65217521106292</v>
       </c>
     </row>
     <row r="7">
@@ -2512,196 +3246,224 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>N50 (kb)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>7368</v>
+        <v>16.02</v>
       </c>
       <c r="D8" t="n">
-        <v>22428</v>
+        <v>31.472</v>
       </c>
       <c r="E8" t="n">
-        <v>15967.4</v>
+        <v>24.30855</v>
       </c>
       <c r="F8" t="n">
-        <v>16279</v>
+        <v>24.962</v>
       </c>
       <c r="G8" t="n">
-        <v>21896</v>
+        <v>31.472</v>
       </c>
       <c r="H8" t="n">
-        <v>4292.032059526116</v>
+        <v>4.55193271242239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median length</t>
+          <t>N75</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>772</v>
+        <v>7368</v>
       </c>
       <c r="D9" t="n">
-        <v>19489</v>
+        <v>22428</v>
       </c>
       <c r="E9" t="n">
-        <v>12096.85</v>
+        <v>15967.4</v>
       </c>
       <c r="F9" t="n">
-        <v>12927.5</v>
+        <v>16279</v>
       </c>
       <c r="G9" t="n">
-        <v>19330</v>
+        <v>21896</v>
       </c>
       <c r="H9" t="n">
-        <v>5514.716009054892</v>
+        <v>4292.032059526116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mean length</t>
+          <t>Median length</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>5341</v>
+        <v>772</v>
       </c>
       <c r="D10" t="n">
-        <v>20619</v>
+        <v>19489</v>
       </c>
       <c r="E10" t="n">
-        <v>14025.5</v>
+        <v>12096.85</v>
       </c>
       <c r="F10" t="n">
-        <v>15006.5</v>
+        <v>12927.5</v>
       </c>
       <c r="G10" t="n">
-        <v>20619</v>
+        <v>19330</v>
       </c>
       <c r="H10" t="n">
-        <v>4542.443204175248</v>
+        <v>5514.716009054892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Median identity</t>
+          <t>Mean length</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>99.14</v>
+        <v>5341</v>
       </c>
       <c r="D11" t="n">
-        <v>99.51000000000001</v>
+        <v>20619</v>
       </c>
       <c r="E11" t="n">
-        <v>99.40049999999999</v>
+        <v>14025.5</v>
       </c>
       <c r="F11" t="n">
-        <v>99.41499999999999</v>
+        <v>15006.5</v>
       </c>
       <c r="G11" t="n">
-        <v>99.39</v>
+        <v>20619</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07351870510285081</v>
+        <v>4542.443204175248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mean identity</t>
+          <t>Median identity</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>96.81999999999999</v>
+        <v>99.14</v>
       </c>
       <c r="D12" t="n">
-        <v>98.16</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>97.6825</v>
+        <v>99.40049999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>97.67</v>
+        <v>99.41499999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>97.65000000000001</v>
+        <v>99.39</v>
       </c>
       <c r="H12" t="n">
-        <v>0.355777502912912</v>
+        <v>0.0735187051028508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Median mapping Q score</t>
+          <t>Mean identity</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>20.66</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>23.1</v>
+        <v>98.16</v>
       </c>
       <c r="E13" t="n">
-        <v>22.2515</v>
+        <v>97.6825</v>
       </c>
       <c r="F13" t="n">
-        <v>22.33</v>
+        <v>97.67</v>
       </c>
       <c r="G13" t="n">
-        <v>22.15</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.480879402761233</v>
+        <v>0.355777502912912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Median mapping Q score</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22.2515</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.480879402761233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Mean mapping Q score</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>14.98</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>17.35</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>16.396</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>16.325</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>16.29</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>0.6474029087946623</v>
       </c>
     </row>
@@ -2716,7 +3478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,196 +3699,224 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>N50 (kb)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>11678</v>
+        <v>18.89</v>
       </c>
       <c r="D8" t="n">
-        <v>24518</v>
+        <v>32.164</v>
       </c>
       <c r="E8" t="n">
-        <v>17894.31578947368</v>
+        <v>25.50142105263158</v>
       </c>
       <c r="F8" t="n">
-        <v>17346</v>
+        <v>24.918</v>
       </c>
       <c r="G8" t="n">
-        <v>15709</v>
+        <v>22.76</v>
       </c>
       <c r="H8" t="n">
-        <v>3040.326682970317</v>
+        <v>3.085588748355264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median length</t>
+          <t>N75</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>2105</v>
+        <v>11678</v>
       </c>
       <c r="D9" t="n">
-        <v>23177</v>
+        <v>24518</v>
       </c>
       <c r="E9" t="n">
-        <v>14573.8947368421</v>
+        <v>17894.31578947368</v>
       </c>
       <c r="F9" t="n">
-        <v>14442</v>
+        <v>17346</v>
       </c>
       <c r="G9" t="n">
-        <v>14442</v>
+        <v>15709</v>
       </c>
       <c r="H9" t="n">
-        <v>4373.352221691132</v>
+        <v>3040.326682970317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mean length</t>
+          <t>Median length</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>7007</v>
+        <v>2105</v>
       </c>
       <c r="D10" t="n">
-        <v>20964</v>
+        <v>23177</v>
       </c>
       <c r="E10" t="n">
-        <v>15571.47368421053</v>
+        <v>14573.8947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>15731</v>
+        <v>14442</v>
       </c>
       <c r="G10" t="n">
-        <v>15610</v>
+        <v>14442</v>
       </c>
       <c r="H10" t="n">
-        <v>3019.100792701567</v>
+        <v>4373.352221691132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Median identity</t>
+          <t>Mean length</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>98.79000000000001</v>
+        <v>7007</v>
       </c>
       <c r="D11" t="n">
-        <v>99.54000000000001</v>
+        <v>20964</v>
       </c>
       <c r="E11" t="n">
-        <v>99.35526315789474</v>
+        <v>15571.47368421053</v>
       </c>
       <c r="F11" t="n">
-        <v>99.44</v>
+        <v>15731</v>
       </c>
       <c r="G11" t="n">
-        <v>99.48999999999999</v>
+        <v>15610</v>
       </c>
       <c r="H11" t="n">
-        <v>0.215622314374324</v>
+        <v>3019.100792701567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mean identity</t>
+          <t>Median identity</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>95.86</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>98.18000000000001</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>97.44421052631579</v>
+        <v>99.35526315789474</v>
       </c>
       <c r="F12" t="n">
-        <v>97.68000000000001</v>
+        <v>99.44</v>
       </c>
       <c r="G12" t="n">
-        <v>97.68000000000001</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6565762694926003</v>
+        <v>0.215622314374324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Median mapping Q score</t>
+          <t>Mean identity</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>19.17</v>
+        <v>95.86</v>
       </c>
       <c r="D13" t="n">
-        <v>23.37</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>22.08315789473684</v>
+        <v>97.44421052631579</v>
       </c>
       <c r="F13" t="n">
-        <v>22.52</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>22.92</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.193449959997295</v>
+        <v>0.6565762694926003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mean mapping Q score</t>
+          <t>Median mapping Q score</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>19</v>
       </c>
       <c r="C14" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22.08315789473684</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.193449959997295</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mean mapping Q score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
         <v>13.83</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>17.4</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>16.04</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>16.35</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>16.35</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>0.9865146279255624</v>
       </c>
     </row>
